--- a/Progresso Projeto Final SS2017.xlsx
+++ b/Progresso Projeto Final SS2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beatriz\Google Drive\SISTEMAS SENSORIAIS\Projeto Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T0\Google Drive\SISTEMAS SENSORIAIS\Projeto Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>40;Chess_Recognition</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Coluna3</t>
   </si>
   <si>
-    <t>erro com a 3ª imagem; coreDiff = borderDiff = 0.0 quando o fundo da imagem é branco</t>
-  </si>
-  <si>
     <t>?????</t>
   </si>
   <si>
@@ -127,12 +124,21 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>~0.00</t>
+  </si>
+  <si>
+    <t>quase bom</t>
+  </si>
+  <si>
+    <t>já saca a width do tabuleiro (nível 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,7 +218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,12 +333,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B3:D28" totalsRowShown="0" dataDxfId="3" headerRowCellStyle="Correto" dataCellStyle="Correto">
-  <autoFilter ref="B3:D28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="B3:D28" totalsRowShown="0" dataDxfId="3" headerRowCellStyle="Correto" dataCellStyle="Correto">
+  <autoFilter ref="B3:D28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Coluna1" dataDxfId="2" dataCellStyle="Cabeçalho 3"/>
-    <tableColumn id="2" name="Coluna2" dataDxfId="1" dataCellStyle="Cabeçalho 3"/>
-    <tableColumn id="3" name="Coluna3" dataDxfId="0" dataCellStyle="Cabeçalho 3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Coluna1" dataDxfId="2" dataCellStyle="Cabeçalho 3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Coluna2" dataDxfId="1" dataCellStyle="Cabeçalho 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Coluna3" dataDxfId="0" dataCellStyle="Cabeçalho 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -634,22 +640,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="4" width="9.26953125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
@@ -661,7 +667,7 @@
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
@@ -673,7 +679,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -682,9 +688,11 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -699,7 +707,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -714,7 +722,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -729,7 +737,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -744,7 +752,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -758,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -776,7 +784,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -791,7 +799,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -806,7 +814,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -821,7 +829,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -836,7 +844,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -851,7 +859,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -866,7 +874,7 @@
       </c>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -881,7 +889,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -892,7 +900,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -903,7 +911,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -918,21 +926,21 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
-        <v>260.709</v>
-      </c>
-      <c r="D22" s="4">
-        <v>95.667000000000002</v>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -942,7 +950,7 @@
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -956,10 +964,10 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -970,18 +978,22 @@
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -995,10 +1007,10 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1012,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>24</v>
       </c>
